--- a/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -8,18 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{40A29573-619A-42B3-AB90-20B38ADCBAC0}"/>
+  <xr:revisionPtr revIDLastSave="446" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{84B3B294-79D9-44BB-BFE6-0B61D14DED4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4179" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="657">
   <si>
     <t>orderNumber</t>
   </si>
@@ -1985,6 +1993,27 @@
   </si>
   <si>
     <t>anonymous</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of scientificName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Count of genus</t>
+  </si>
+  <si>
+    <t>Count of family</t>
   </si>
 </sst>
 </file>
@@ -2034,7 +2063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2051,6 +2080,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2066,6 +2097,3023 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="WARD" refreshedDate="43902.706235069447" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="223" xr:uid="{87AEBD71-768F-4BD2-9472-1EDC8DC016D1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D1:D1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="scientificName" numFmtId="0">
+      <sharedItems containsBlank="1" count="76">
+        <s v="Obscurella bicostulata"/>
+        <s v="Obscurella asturica"/>
+        <s v="Obscurella hidalgoi"/>
+        <s v="Clausilia bidentata"/>
+        <s v="Elona quimperiana"/>
+        <s v="Helicella itala itala"/>
+        <s v="Pomatias elegans"/>
+        <s v="Leucophytia bidentata"/>
+        <s v="Pseudomelampus exiguus"/>
+        <s v="Helicella pampelonensis"/>
+        <s v="Euglesa cf. casertana"/>
+        <s v="Cornu aspersum"/>
+        <s v="Vallonia costata"/>
+        <s v="Obscurella crassilabrum"/>
+        <s v="Testacella maugei"/>
+        <s v="Obscurella spec."/>
+        <s v="Galba truncatula"/>
+        <s v="Physella acuta"/>
+        <s v="Ancylus fluviatilis"/>
+        <s v="Potamopyrgus antipodarum"/>
+        <s v="Chondrina kobelti"/>
+        <s v="Abida vasconica"/>
+        <s v="Cochlicella barbara"/>
+        <s v="Lauria cylindracea"/>
+        <s v="Pupilla bigranata"/>
+        <s v="Cochlicopa lubrica"/>
+        <s v="Cochlicopa lubricella"/>
+        <s v="Helicella spec."/>
+        <s v="Oestophorella buvinieri"/>
+        <s v="Mengoana jeschaui"/>
+        <s v="Azeca goodalli"/>
+        <s v="Cecilioides acicula"/>
+        <s v="Aegopinella nitidula"/>
+        <s v="Vitrea contracta"/>
+        <s v="Pyrenaearia cantabrica"/>
+        <s v="Oestophora silvae"/>
+        <s v="Alzoniella spec."/>
+        <s v="Theodoxus fluviatilis"/>
+        <s v="Potamopyrgus antipodarum f. carinata"/>
+        <s v="Theba pisana"/>
+        <s v="Cepaea nemoralis"/>
+        <s v="Hygromia limbata"/>
+        <s v="Arion rufus/vulgaris"/>
+        <s v="Arion spec. 1"/>
+        <s v="Deroceras spec."/>
+        <s v="Obscurella asturica/hidalgoi"/>
+        <s v="Helicella valdeona"/>
+        <s v="Vallonia pulchella"/>
+        <s v="Truncatellina callicratis"/>
+        <s v="Merdigera obscura"/>
+        <s v="Pyrenaearia schaufussi"/>
+        <s v="Vitrea subrimata"/>
+        <s v="Vitrea spec."/>
+        <s v="Vitrina pellucida"/>
+        <s v="Plentuisa vendia"/>
+        <s v="Paralaoma servile"/>
+        <s v="Pyramidula pusilla/umbilicata"/>
+        <s v="Chondrina cliedentata"/>
+        <s v="Oligolimax annularis"/>
+        <s v="Xerosecta cespitum"/>
+        <s v="Xerotricha apicina"/>
+        <s v="Cochlicella acuta"/>
+        <s v="Pupilla muscorum"/>
+        <s v="Cernuella aginnica"/>
+        <s v="Gastropoda spec."/>
+        <s v="Vertigo pygmaea"/>
+        <s v="Vallonia excentrica"/>
+        <s v="Peringia ulvae"/>
+        <s v="Discus rotundatus"/>
+        <s v="Trochulus hispidus"/>
+        <s v="Oxychilus navarricus navarricus"/>
+        <s v="Euglesa aff. globulare"/>
+        <s v="Macrogastra rolphii digonostoma"/>
+        <s v="Arion spec. 2"/>
+        <s v="Hygromiidae spec."/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="WARD" refreshedDate="43902.708203125003" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="223" xr:uid="{919BFF06-C911-46E7-9413-1818ADF4F396}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F1:F1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="genus" numFmtId="0">
+      <sharedItems containsBlank="1" count="53">
+        <s v="Obscurella"/>
+        <s v="Clausilia"/>
+        <s v="Elona"/>
+        <s v="Helicella"/>
+        <s v="Pomatias"/>
+        <s v="Leucophytia"/>
+        <s v="Pseudomelampus"/>
+        <s v="Euglesa"/>
+        <s v="Cornu"/>
+        <s v="Vallonia"/>
+        <s v="Testacella"/>
+        <s v="Galba"/>
+        <s v="Physella"/>
+        <s v="Ancylus"/>
+        <s v="Potamopyrgus"/>
+        <s v="Chondrina"/>
+        <s v="Abida"/>
+        <s v="Cochlicella"/>
+        <s v="Lauria"/>
+        <s v="Pupilla"/>
+        <s v="Cochlicopa"/>
+        <s v="Oestophorella"/>
+        <s v="Mengoana"/>
+        <s v="Azeca"/>
+        <s v="Cecilioides"/>
+        <s v="Aegopinella"/>
+        <s v="Vitrea"/>
+        <s v="Pyrenaearia"/>
+        <s v="Oestophora"/>
+        <s v="Alzoniella"/>
+        <s v="Theodoxus"/>
+        <s v="Theba"/>
+        <s v="Cepaea"/>
+        <s v="Hygromia"/>
+        <s v="Arion"/>
+        <s v="Deroceras"/>
+        <s v="Truncatellina"/>
+        <s v="Merdigera"/>
+        <s v="Vitrina"/>
+        <s v="Plentuisa"/>
+        <s v="Paralaoma"/>
+        <s v="Pyramidula"/>
+        <s v="Oligolimax"/>
+        <s v="Xerosecta"/>
+        <s v="Xerotricha"/>
+        <s v="Cernuella"/>
+        <m/>
+        <s v="Vertigo"/>
+        <s v="Peringia"/>
+        <s v="Discus"/>
+        <s v="Trochulus"/>
+        <s v="Oxychilus"/>
+        <s v="Macrogastra"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="WARD" refreshedDate="43902.709017592591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="223" xr:uid="{D1B7300D-9E2E-4F20-879A-0969C8B648C2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="family" numFmtId="0">
+      <sharedItems containsBlank="1" count="37">
+        <s v="Megalomastomatidae"/>
+        <s v="Clausiliidae"/>
+        <s v="Elonidae"/>
+        <s v="Geomitridae"/>
+        <s v="Pomatiidae"/>
+        <s v="Ellobiidae"/>
+        <s v="Sphaeriidae"/>
+        <s v="Helicidae"/>
+        <s v="Valloniidae"/>
+        <s v="Testacellidae"/>
+        <s v="Lymnaeidae"/>
+        <s v="Physidae"/>
+        <s v="Planorbidae"/>
+        <s v="Tateidae"/>
+        <s v="Chondrinidae"/>
+        <s v="Lauriidae"/>
+        <s v="Pupillidae"/>
+        <s v="Cochlicopidae"/>
+        <s v="Trissexodontidae"/>
+        <s v="Hygromiidae"/>
+        <s v="Azecidae"/>
+        <s v="Ferussaciidae"/>
+        <s v="Gastrodontidae"/>
+        <s v="Pristilomatidae"/>
+        <s v="Hydrobiidae"/>
+        <s v="Neritidae"/>
+        <s v="Arionidae"/>
+        <s v="Agriolimacidae"/>
+        <s v="Truncatellinidae"/>
+        <s v="Enidae"/>
+        <s v="Vitrinidae"/>
+        <s v="Punctidae"/>
+        <s v="Pyramidulidae"/>
+        <m/>
+        <s v="Vertiginidae"/>
+        <s v="Discidae"/>
+        <s v="Oxychilidae"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="223">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="75"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="223">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="223">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACAB314E-E09E-4027-984E-A243AF174D67}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="77">
+        <item x="21"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="18"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="40"/>
+        <item x="63"/>
+        <item x="57"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="61"/>
+        <item x="22"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="44"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="71"/>
+        <item x="10"/>
+        <item x="16"/>
+        <item x="64"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="46"/>
+        <item x="41"/>
+        <item x="74"/>
+        <item x="23"/>
+        <item x="7"/>
+        <item x="72"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="45"/>
+        <item x="0"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="35"/>
+        <item x="28"/>
+        <item x="58"/>
+        <item x="70"/>
+        <item x="55"/>
+        <item x="67"/>
+        <item x="17"/>
+        <item x="54"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="62"/>
+        <item x="56"/>
+        <item x="34"/>
+        <item x="50"/>
+        <item x="14"/>
+        <item x="39"/>
+        <item x="37"/>
+        <item x="69"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="66"/>
+        <item x="47"/>
+        <item x="65"/>
+        <item x="33"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="53"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="77">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of scientificName" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51FFF06F-9776-4B31-8FF8-3759F2D892B5}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="54">
+        <item x="16"/>
+        <item x="25"/>
+        <item x="29"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="8"/>
+        <item x="35"/>
+        <item x="49"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="5"/>
+        <item x="52"/>
+        <item x="22"/>
+        <item x="37"/>
+        <item x="0"/>
+        <item x="28"/>
+        <item x="21"/>
+        <item x="42"/>
+        <item x="51"/>
+        <item x="40"/>
+        <item x="48"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="19"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="50"/>
+        <item x="36"/>
+        <item x="9"/>
+        <item x="47"/>
+        <item x="26"/>
+        <item x="38"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="54">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of genus" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2ADF2B-95E8-4768-8AF2-A37328AA3575}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="38">
+        <item x="27"/>
+        <item x="26"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="31"/>
+        <item x="16"/>
+        <item x="32"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="38">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of family" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2333,8 +5381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20425,8 +23473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
   <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:A5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21082,4 +24130,1885 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE66084-9FAF-4850-B447-6B8EAB238C0A}">
+  <dimension ref="A3:E80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>645</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>329</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>641</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>355</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>634</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>639</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="7">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>354</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="7">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="7">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="7">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>333</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="7">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="7">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>276</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="7">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>610</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="7">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>259</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="7">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>317</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>314</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="7">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B78" s="7">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B80" s="7">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B094D2BE-6713-4862-99EF-F4A7EE421AAA}">
+  <dimension ref="A3:B57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B56" s="7"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B57" s="7">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB9B67A-9E60-4ADA-B856-EA539023E8BB}">
+  <dimension ref="A3:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B41" s="7">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="490" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E7A7A766-49A8-4989-92FA-073B685F3F7B}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4444B6B0-31D2-4F0A-9877-9292DED185D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
-    <pivotCache cacheId="4" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4369,7 +4369,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACAB314E-E09E-4027-984E-A243AF174D67}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACAB314E-E09E-4027-984E-A243AF174D67}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B80" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4709,7 +4709,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51FFF06F-9776-4B31-8FF8-3759F2D892B5}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51FFF06F-9776-4B31-8FF8-3759F2D892B5}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B57" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4957,7 +4957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2ADF2B-95E8-4768-8AF2-A37328AA3575}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2ADF2B-95E8-4768-8AF2-A37328AA3575}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5406,7 +5406,7 @@
   <dimension ref="A1:AG223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF201" sqref="AF201"/>
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4444B6B0-31D2-4F0A-9877-9292DED185D9}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F22738FD-7BC1-4F67-B529-47537F3275E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="664">
   <si>
     <t>orderNumber</t>
   </si>
@@ -1899,9 +1899,6 @@
     <t>dark shells with sharp ribs and deeper suture</t>
   </si>
   <si>
-    <t>see also Alonso et al., 2020</t>
-  </si>
-  <si>
     <t>shells don't seem te be at optimal size;  shells flat, but umbilicus not extremely large</t>
   </si>
   <si>
@@ -1920,9 +1917,6 @@
     <t>remarkably small shells,  but does not seem to resemble any other species</t>
   </si>
   <si>
-    <t>a fresh shell found closeby had a reddish brown colour and no callus behind the aperture (to distinguish it from the recently described O. urbionensis Prieto and Arribas, 2020 (Prieto et al., 2020))</t>
-  </si>
-  <si>
     <t>largest shell horny yellowish, very smooth with shallow suture; finely striated, no point-shaped depressions were visible (to distinguish from O. anjana)</t>
   </si>
   <si>
@@ -2038,6 +2032,9 @@
   </si>
   <si>
     <t>large black Arion with foot fringe orange and black striped, sole dark; A. rufus/vulgaris/ater</t>
+  </si>
+  <si>
+    <t>a fresh shell found closeby had a reddish brown colour and no callus behind the aperture (to distinguish it from the recently described O. urbionensis Prieto &amp; Arribas, 2020 (Prieto et al., 2020))</t>
   </si>
 </sst>
 </file>
@@ -5405,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L191" sqref="L191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5467,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -5570,7 +5567,7 @@
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K2" s="3">
         <v>38217</v>
@@ -5606,7 +5603,7 @@
         <v>40</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>41</v>
@@ -5642,7 +5639,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K3" s="3">
         <v>41449</v>
@@ -5675,7 +5672,7 @@
         <v>40</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>41</v>
@@ -5684,7 +5681,7 @@
         <v>42</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>593</v>
@@ -5742,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>41</v>
@@ -5751,10 +5748,10 @@
         <v>42</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -5815,7 +5812,7 @@
         <v>40</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>41</v>
@@ -6180,7 +6177,7 @@
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K10" s="3">
         <v>41486</v>
@@ -6495,7 +6492,7 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -6560,7 +6557,7 @@
         <v>90</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>25</v>
@@ -7067,7 +7064,7 @@
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K21" s="3">
         <v>41496</v>
@@ -7866,18 +7863,18 @@
         <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F31" t="s">
         <v>138</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K31" s="3">
         <v>42205</v>
@@ -8676,7 +8673,7 @@
         <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>68</v>
@@ -8734,7 +8731,7 @@
         <v>42</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>25</v>
@@ -8762,7 +8759,7 @@
       </c>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K42" s="3">
         <v>42205</v>
@@ -9493,7 +9490,7 @@
       </c>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K51" s="3">
         <v>42207</v>
@@ -9577,7 +9574,7 @@
       </c>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K52" s="3">
         <v>42207</v>
@@ -9898,18 +9895,18 @@
         <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F56" t="s">
         <v>138</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K56" s="3">
         <v>42210</v>
@@ -9966,7 +9963,7 @@
         <v>42</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>25</v>
@@ -9983,18 +9980,18 @@
         <v>137</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F57" t="s">
         <v>138</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K57" s="3">
         <v>42210</v>
@@ -10051,7 +10048,7 @@
         <v>42</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>25</v>
@@ -12520,7 +12517,7 @@
         <v>229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>231</v>
@@ -12585,7 +12582,7 @@
         <v>42</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AG89" s="1" t="s">
         <v>27</v>
@@ -12602,20 +12599,20 @@
         <v>229</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H90" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K90" s="3">
         <v>43718</v>
@@ -12666,10 +12663,10 @@
         <v>222</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG90" s="1" t="s">
         <v>27</v>
@@ -13220,7 +13217,7 @@
       </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K98" s="3">
         <v>43719</v>
@@ -13709,7 +13706,7 @@
       </c>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K104" s="3">
         <v>43719</v>
@@ -13786,7 +13783,7 @@
         <v>229</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>231</v>
@@ -13851,7 +13848,7 @@
         <v>42</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>27</v>
@@ -14217,7 +14214,7 @@
       </c>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K110" s="3">
         <v>43719</v>
@@ -15641,7 +15638,7 @@
       </c>
       <c r="I127"/>
       <c r="J127" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K127" s="3">
         <v>43720</v>
@@ -15728,7 +15725,7 @@
       </c>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K128" s="3">
         <v>43720</v>
@@ -15962,7 +15959,7 @@
         <v>90</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AG130" s="1" t="s">
         <v>25</v>
@@ -16385,7 +16382,7 @@
         <v>42</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG135" s="1" t="s">
         <v>25</v>
@@ -16472,7 +16469,7 @@
         <v>42</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AG136" s="1" t="s">
         <v>25</v>
@@ -16489,20 +16486,20 @@
         <v>229</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H137" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I137"/>
       <c r="J137" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K137" s="3">
         <v>43720</v>
@@ -16553,10 +16550,10 @@
         <v>222</v>
       </c>
       <c r="AE137" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG137" s="1" t="s">
         <v>25</v>
@@ -16583,7 +16580,7 @@
       </c>
       <c r="I138"/>
       <c r="J138" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K138" s="3">
         <v>43720</v>
@@ -16915,20 +16912,20 @@
         <v>229</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H142" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I142"/>
       <c r="J142" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K142" s="3">
         <v>43720</v>
@@ -16979,10 +16976,10 @@
         <v>222</v>
       </c>
       <c r="AE142" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AG142" s="1" t="s">
         <v>25</v>
@@ -18464,7 +18461,7 @@
         <v>42</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG160" s="1" t="s">
         <v>25</v>
@@ -18635,7 +18632,7 @@
         <v>42</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG162" s="1" t="s">
         <v>25</v>
@@ -18722,7 +18719,7 @@
         <v>42</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG163" s="1" t="s">
         <v>25</v>
@@ -18964,7 +18961,7 @@
         <v>42</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG166" s="1" t="s">
         <v>25</v>
@@ -19038,7 +19035,7 @@
         <v>42</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AG167" s="1" t="s">
         <v>25</v>
@@ -19112,7 +19109,7 @@
         <v>42</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG168" s="1" t="s">
         <v>25</v>
@@ -19361,7 +19358,7 @@
         <v>42</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG171" s="1" t="s">
         <v>25</v>
@@ -19610,7 +19607,7 @@
         <v>42</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG174" s="1" t="s">
         <v>25</v>
@@ -19697,7 +19694,7 @@
         <v>42</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG175" s="1" t="s">
         <v>25</v>
@@ -19946,7 +19943,7 @@
         <v>42</v>
       </c>
       <c r="AF178" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG178" s="1" t="s">
         <v>25</v>
@@ -20030,7 +20027,7 @@
         <v>42</v>
       </c>
       <c r="AF179" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG179" s="1" t="s">
         <v>25</v>
@@ -21699,7 +21696,7 @@
         <v>229</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>231</v>
@@ -21755,7 +21752,7 @@
         <v>42</v>
       </c>
       <c r="AF201" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AG201" s="1" t="s">
         <v>27</v>
@@ -22118,7 +22115,7 @@
         <v>42</v>
       </c>
       <c r="AF206" s="1" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="AG206" s="1" t="s">
         <v>25</v>
@@ -22276,7 +22273,7 @@
         <v>42</v>
       </c>
       <c r="AF208" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG208" s="1" t="s">
         <v>25</v>
@@ -22365,7 +22362,7 @@
         <v>42</v>
       </c>
       <c r="AF209" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG209" s="1" t="s">
         <v>25</v>
@@ -22712,7 +22709,7 @@
         <v>91</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>550</v>
@@ -22781,7 +22778,7 @@
         <v>42</v>
       </c>
       <c r="AF214" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG214" s="1" t="s">
         <v>27</v>
@@ -22798,7 +22795,7 @@
         <v>91</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>550</v>
@@ -22867,7 +22864,7 @@
         <v>42</v>
       </c>
       <c r="AF215" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AG215" s="1" t="s">
         <v>27</v>
@@ -23116,7 +23113,7 @@
         <v>42</v>
       </c>
       <c r="AF218" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG218" s="1" t="s">
         <v>27</v>
@@ -23203,7 +23200,7 @@
         <v>42</v>
       </c>
       <c r="AF219" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG219" s="1" t="s">
         <v>25</v>
@@ -23390,13 +23387,13 @@
         <v>229</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K222" s="3">
         <v>43724</v>
@@ -23450,7 +23447,7 @@
         <v>42</v>
       </c>
       <c r="AF222" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG222" s="1" t="s">
         <v>27</v>
@@ -23461,7 +23458,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>174</v>
@@ -23521,7 +23518,7 @@
         <v>42</v>
       </c>
       <c r="AF223" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG223" s="1" t="s">
         <v>27</v>
@@ -24242,13 +24239,13 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -24421,13 +24418,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -24561,13 +24558,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -24631,13 +24628,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -24645,13 +24642,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -25303,13 +25300,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B80" s="7">
         <v>222</v>
@@ -25336,10 +25333,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -25760,13 +25757,13 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B57" s="7">
         <v>218</v>
@@ -25793,10 +25790,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -26089,13 +26086,13 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B41" s="7">
         <v>219</v>

--- a/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F22738FD-7BC1-4F67-B529-47537F3275E3}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{94D2AA51-C994-4DED-A195-D422B018DC1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="665">
   <si>
     <t>orderNumber</t>
   </si>
@@ -876,9 +876,6 @@
     <t>Paralaoma</t>
   </si>
   <si>
-    <t>servile</t>
-  </si>
-  <si>
     <t>(Shuttleworth, 1852)</t>
   </si>
   <si>
@@ -903,9 +900,6 @@
     <t>Chondrina cliedentata</t>
   </si>
   <si>
-    <t>cliedentata</t>
-  </si>
-  <si>
     <t>E. Gittenberger, 1973</t>
   </si>
   <si>
@@ -1950,9 +1944,6 @@
     <t>Helicella spec.</t>
   </si>
   <si>
-    <t>empty shell | on rocks; cannot find this location (Bejes bij Tresviso?)</t>
-  </si>
-  <si>
     <t>Euglesa aff. globulare</t>
   </si>
   <si>
@@ -2035,6 +2026,18 @@
   </si>
   <si>
     <t>a fresh shell found closeby had a reddish brown colour and no callus behind the aperture (to distinguish it from the recently described O. urbionensis Prieto &amp; Arribas, 2020 (Prieto et al., 2020))</t>
+  </si>
+  <si>
+    <t>Chondrina cliendentata</t>
+  </si>
+  <si>
+    <t>cliendentata</t>
+  </si>
+  <si>
+    <t>Paralaoma servilis</t>
+  </si>
+  <si>
+    <t>empty shell | on rocks; cannot find this location (Bejes near Tresviso?)</t>
   </si>
 </sst>
 </file>
@@ -5402,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L191" sqref="L191"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5415,7 +5418,7 @@
     <col min="5" max="5" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
@@ -5440,7 +5443,7 @@
     <col min="30" max="30" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="179.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="50.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="62.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -5458,13 +5461,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -5485,13 +5488,13 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -5539,7 +5542,7 @@
         <v>21</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>22</v>
@@ -5550,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -5567,7 +5570,7 @@
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K2" s="3">
         <v>38217</v>
@@ -5576,16 +5579,16 @@
         <v>2004</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O2" s="1">
         <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>36</v>
@@ -5603,7 +5606,7 @@
         <v>40</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>41</v>
@@ -5615,7 +5618,7 @@
         <v>42</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5623,7 +5626,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -5639,7 +5642,7 @@
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K3" s="3">
         <v>41449</v>
@@ -5648,16 +5651,16 @@
         <v>2013</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O3" s="1">
         <v>4</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>45</v>
@@ -5672,7 +5675,7 @@
         <v>40</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>41</v>
@@ -5681,10 +5684,10 @@
         <v>42</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5692,7 +5695,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -5718,16 +5721,16 @@
         <v>2013</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O4" s="1">
         <v>3</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>49</v>
@@ -5739,7 +5742,7 @@
         <v>40</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>41</v>
@@ -5748,10 +5751,10 @@
         <v>42</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -5759,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -5785,16 +5788,16 @@
         <v>2013</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>50</v>
@@ -5812,7 +5815,7 @@
         <v>40</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>41</v>
@@ -5824,7 +5827,7 @@
         <v>42</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -5832,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -5857,16 +5860,16 @@
         <v>2013</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O6" s="1">
         <v>3</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q6" s="1">
         <v>43.418889</v>
@@ -5913,7 +5916,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -5938,16 +5941,16 @@
         <v>2013</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="1">
         <v>43.418889</v>
@@ -5994,7 +5997,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" t="s">
         <v>66</v>
@@ -6021,16 +6024,16 @@
         <v>2013</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O8" s="1">
         <v>6</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q8" s="1">
         <v>43.418889</v>
@@ -6077,7 +6080,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -6104,16 +6107,16 @@
         <v>2013</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q9" s="1">
         <v>43.418889</v>
@@ -6160,7 +6163,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -6177,7 +6180,7 @@
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K10" s="3">
         <v>41486</v>
@@ -6186,16 +6189,16 @@
         <v>2013</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="1">
         <v>43.418889</v>
@@ -6242,7 +6245,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -6267,13 +6270,13 @@
         <v>2013</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O11" s="1">
         <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q11" s="1">
         <v>43.418889</v>
@@ -6320,7 +6323,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -6347,16 +6350,16 @@
         <v>2013</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q12" s="1">
         <v>43.432080999999997</v>
@@ -6395,7 +6398,7 @@
         <v>42</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -6403,7 +6406,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -6430,16 +6433,16 @@
         <v>2013</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O13" s="1">
         <v>3</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="1">
         <v>43.432080999999997</v>
@@ -6478,7 +6481,7 @@
         <v>42</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -6486,13 +6489,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
@@ -6512,13 +6515,13 @@
         <v>2013</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O14" s="1">
         <v>20</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q14" s="1">
         <v>43.064563999999997</v>
@@ -6557,7 +6560,7 @@
         <v>90</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>25</v>
@@ -6568,7 +6571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -6577,7 +6580,7 @@
         <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
@@ -6595,16 +6598,16 @@
         <v>2013</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q15" s="1">
         <v>43.078969000000001</v>
@@ -6643,7 +6646,7 @@
         <v>42</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -6651,7 +6654,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -6676,16 +6679,16 @@
         <v>2013</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O16" s="1">
         <v>8</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="1">
         <v>43.444462999999999</v>
@@ -6724,7 +6727,7 @@
         <v>42</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -6732,7 +6735,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -6757,13 +6760,13 @@
         <v>2013</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O17" s="1">
         <v>20</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="1">
         <v>43.346206000000002</v>
@@ -6810,7 +6813,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
         <v>101</v>
@@ -6835,16 +6838,16 @@
         <v>2013</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q18" s="1">
         <v>43.346206000000002</v>
@@ -6891,7 +6894,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C19" t="s">
         <v>105</v>
@@ -6916,13 +6919,13 @@
         <v>2013</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O19" s="1">
         <v>20</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="1">
         <v>43.346206000000002</v>
@@ -6961,7 +6964,7 @@
         <v>42</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -6969,7 +6972,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C20" t="s">
         <v>53</v>
@@ -6994,13 +6997,13 @@
         <v>2013</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O20" s="1">
         <v>20</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="1">
         <v>43.346206000000002</v>
@@ -7039,7 +7042,7 @@
         <v>42</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -7047,7 +7050,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
@@ -7064,7 +7067,7 @@
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K21" s="3">
         <v>41496</v>
@@ -7073,16 +7076,16 @@
         <v>2013</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O21" s="1">
         <v>10</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q21" s="1">
         <v>43.346206000000002</v>
@@ -7121,7 +7124,7 @@
         <v>42</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -7129,7 +7132,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -7155,16 +7158,16 @@
         <v>2013</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="1">
         <v>43.346206000000002</v>
@@ -7203,7 +7206,7 @@
         <v>42</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -7211,7 +7214,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
         <v>112</v>
@@ -7238,16 +7241,16 @@
         <v>2013</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="1">
         <v>43.346206000000002</v>
@@ -7286,7 +7289,7 @@
         <v>42</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -7294,7 +7297,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -7313,16 +7316,16 @@
         <v>2013</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="1">
         <v>43.346206000000002</v>
@@ -7361,10 +7364,10 @@
         <v>42</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -7372,7 +7375,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
         <v>118</v>
@@ -7399,16 +7402,16 @@
         <v>2013</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q25" s="1">
         <v>43.346206000000002</v>
@@ -7447,7 +7450,7 @@
         <v>42</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
@@ -7455,7 +7458,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
         <v>122</v>
@@ -7482,13 +7485,13 @@
         <v>2013</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O26" s="1">
         <v>20</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q26" s="1">
         <v>43.346206000000002</v>
@@ -7527,7 +7530,7 @@
         <v>42</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -7535,7 +7538,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C27" t="s">
         <v>127</v>
@@ -7560,13 +7563,13 @@
         <v>2013</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O27" s="1">
         <v>30</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q27" s="1">
         <v>43.346206000000002</v>
@@ -7605,7 +7608,7 @@
         <v>42</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -7613,7 +7616,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C28" t="s">
         <v>132</v>
@@ -7638,13 +7641,13 @@
         <v>2013</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O28" s="1">
         <v>15</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="1">
         <v>43.346206000000002</v>
@@ -7683,7 +7686,7 @@
         <v>42</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
@@ -7691,7 +7694,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>91</v>
@@ -7700,7 +7703,7 @@
         <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F29" t="s">
         <v>93</v>
@@ -7718,16 +7721,16 @@
         <v>2013</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O29" s="1">
         <v>4</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="1">
         <v>43.346206000000002</v>
@@ -7766,7 +7769,7 @@
         <v>42</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -7774,7 +7777,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>91</v>
@@ -7783,7 +7786,7 @@
         <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F30" t="s">
         <v>93</v>
@@ -7801,16 +7804,16 @@
         <v>2013</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O30" s="1">
         <v>3</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="1">
         <v>43.346206000000002</v>
@@ -7849,7 +7852,7 @@
         <v>42</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -7857,24 +7860,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C31" t="s">
         <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F31" t="s">
         <v>138</v>
       </c>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K31" s="3">
         <v>42205</v>
@@ -7883,16 +7886,16 @@
         <v>2015</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q31" s="1">
         <v>43.428845000000003</v>
@@ -7931,7 +7934,7 @@
         <v>42</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>25</v>
@@ -7942,7 +7945,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C32" t="s">
         <v>137</v>
@@ -7967,16 +7970,16 @@
         <v>2015</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q32" s="1">
         <v>43.428845000000003</v>
@@ -8023,7 +8026,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C33" t="s">
         <v>53</v>
@@ -8048,13 +8051,13 @@
         <v>2015</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O33" s="1">
         <v>10</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q33" s="1">
         <v>43.428845000000003</v>
@@ -8101,7 +8104,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C34" t="s">
         <v>66</v>
@@ -8126,13 +8129,13 @@
         <v>2015</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O34" s="1">
         <v>20</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q34" s="1">
         <v>43.428845000000003</v>
@@ -8179,7 +8182,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C35" t="s">
         <v>148</v>
@@ -8204,16 +8207,16 @@
         <v>2015</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O35" s="1">
         <v>9</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q35" s="1">
         <v>43.428845000000003</v>
@@ -8260,7 +8263,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C36" t="s">
         <v>148</v>
@@ -8285,16 +8288,16 @@
         <v>2015</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O36" s="1">
         <v>3</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q36" s="1">
         <v>43.428845000000003</v>
@@ -8341,7 +8344,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
         <v>153</v>
@@ -8366,16 +8369,16 @@
         <v>2015</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q37" s="1">
         <v>43.428845000000003</v>
@@ -8414,7 +8417,7 @@
         <v>42</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>25</v>
@@ -8425,7 +8428,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C38" t="s">
         <v>158</v>
@@ -8450,16 +8453,16 @@
         <v>2015</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q38" s="1">
         <v>43.428845000000003</v>
@@ -8506,7 +8509,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C39" t="s">
         <v>158</v>
@@ -8531,13 +8534,13 @@
         <v>2015</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O39" s="1">
         <v>15</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q39" s="1">
         <v>43.428845000000003</v>
@@ -8584,7 +8587,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C40" t="s">
         <v>66</v>
@@ -8611,16 +8614,16 @@
         <v>2015</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q40" s="1">
         <v>43.428845000000003</v>
@@ -8667,13 +8670,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C41" t="s">
         <v>66</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>68</v>
@@ -8686,13 +8689,13 @@
         <v>2015</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O41" s="1">
         <v>20</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q41" s="1">
         <v>43.428845000000003</v>
@@ -8731,7 +8734,7 @@
         <v>42</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>25</v>
@@ -8742,7 +8745,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -8759,7 +8762,7 @@
       </c>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K42" s="3">
         <v>42205</v>
@@ -8768,16 +8771,16 @@
         <v>2015</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O42" s="1">
         <v>6</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q42" s="1">
         <v>43.428845000000003</v>
@@ -8824,7 +8827,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
@@ -8850,16 +8853,16 @@
         <v>2015</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O43" s="1">
         <v>12</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q43" s="1">
         <v>43.428845000000003</v>
@@ -8906,7 +8909,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
@@ -8931,16 +8934,16 @@
         <v>2015</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q44" s="1">
         <v>43.427819</v>
@@ -8987,7 +8990,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C45" t="s">
         <v>166</v>
@@ -9012,16 +9015,16 @@
         <v>2015</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q45" s="1">
         <v>43.427819</v>
@@ -9068,7 +9071,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -9093,16 +9096,16 @@
         <v>2015</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q46" s="1">
         <v>43.410164000000002</v>
@@ -9149,7 +9152,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C47" t="s">
         <v>166</v>
@@ -9174,16 +9177,16 @@
         <v>2015</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O47" s="1">
         <v>2</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q47" s="1">
         <v>43.410164000000002</v>
@@ -9230,7 +9233,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C48" t="s">
         <v>127</v>
@@ -9255,16 +9258,16 @@
         <v>2015</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O48" s="1">
         <v>7</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q48" s="1">
         <v>43.268487999999998</v>
@@ -9311,7 +9314,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
@@ -9336,16 +9339,16 @@
         <v>2015</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q49" s="1">
         <v>43.267192000000001</v>
@@ -9392,7 +9395,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
         <v>137</v>
@@ -9417,16 +9420,16 @@
         <v>2015</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O50" s="1">
         <v>2</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q50" s="1">
         <v>43.267192000000001</v>
@@ -9473,7 +9476,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
         <v>32</v>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K51" s="3">
         <v>42207</v>
@@ -9499,16 +9502,16 @@
         <v>2015</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q51" s="1">
         <v>43.267192000000001</v>
@@ -9547,7 +9550,7 @@
         <v>42</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>25</v>
@@ -9558,7 +9561,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
         <v>32</v>
@@ -9574,7 +9577,7 @@
       </c>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K52" s="3">
         <v>42207</v>
@@ -9583,16 +9586,16 @@
         <v>2015</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O52" s="1">
         <v>4</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q52" s="1">
         <v>43.267192000000001</v>
@@ -9631,7 +9634,7 @@
         <v>42</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>25</v>
@@ -9642,7 +9645,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
         <v>32</v>
@@ -9668,16 +9671,16 @@
         <v>2015</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O53" s="1">
         <v>4</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q53" s="1">
         <v>43.267192000000001</v>
@@ -9716,7 +9719,7 @@
         <v>42</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>25</v>
@@ -9727,7 +9730,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C54" t="s">
         <v>174</v>
@@ -9752,16 +9755,16 @@
         <v>2015</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O54" s="1">
         <v>10</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q54" s="1">
         <v>43.420620999999997</v>
@@ -9800,7 +9803,7 @@
         <v>42</v>
       </c>
       <c r="AG54" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
@@ -9808,7 +9811,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
         <v>174</v>
@@ -9833,16 +9836,16 @@
         <v>2015</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O55" s="1">
         <v>4</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q55" s="1">
         <v>43.420620999999997</v>
@@ -9881,7 +9884,7 @@
         <v>42</v>
       </c>
       <c r="AG55" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
@@ -9889,24 +9892,24 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C56" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F56" t="s">
         <v>138</v>
       </c>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K56" s="3">
         <v>42210</v>
@@ -9915,16 +9918,16 @@
         <v>2015</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O56" s="1">
         <v>3</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q56" s="1">
         <v>43.460920000000002</v>
@@ -9963,7 +9966,7 @@
         <v>42</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AG56" s="1" t="s">
         <v>25</v>
@@ -9974,24 +9977,24 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C57" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F57" t="s">
         <v>138</v>
       </c>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="K57" s="3">
         <v>42210</v>
@@ -10000,16 +10003,16 @@
         <v>2015</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q57" s="1">
         <v>43.460920000000002</v>
@@ -10048,7 +10051,7 @@
         <v>42</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AG57" s="1" t="s">
         <v>25</v>
@@ -10059,7 +10062,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C58" t="s">
         <v>181</v>
@@ -10086,16 +10089,16 @@
         <v>2015</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O58" s="1">
         <v>11</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q58" s="1">
         <v>43.460920000000002</v>
@@ -10142,7 +10145,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C59" t="s">
         <v>137</v>
@@ -10167,16 +10170,16 @@
         <v>2015</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O59" s="1">
         <v>7</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q59" s="1">
         <v>43.460920000000002</v>
@@ -10223,7 +10226,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C60" t="s">
         <v>186</v>
@@ -10250,16 +10253,16 @@
         <v>2015</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q60" s="1">
         <v>43.460920000000002</v>
@@ -10306,7 +10309,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C61" t="s">
         <v>158</v>
@@ -10331,16 +10334,16 @@
         <v>2015</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O61" s="1">
         <v>10</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q61" s="1">
         <v>43.455139000000003</v>
@@ -10387,7 +10390,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
         <v>191</v>
@@ -10412,16 +10415,16 @@
         <v>2015</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q62" s="1">
         <v>43.455139000000003</v>
@@ -10468,7 +10471,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C63" t="s">
         <v>195</v>
@@ -10493,16 +10496,16 @@
         <v>2015</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O63" s="1">
         <v>4</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q63" s="1">
         <v>43.455139000000003</v>
@@ -10549,7 +10552,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C64" t="s">
         <v>195</v>
@@ -10574,16 +10577,16 @@
         <v>2015</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O64" s="1">
         <v>4</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q64" s="1">
         <v>43.455139000000003</v>
@@ -10630,7 +10633,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s">
         <v>66</v>
@@ -10655,13 +10658,13 @@
         <v>2015</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O65" s="1">
         <v>20</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q65" s="1">
         <v>43.311635000000003</v>
@@ -10708,7 +10711,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C66" t="s">
         <v>174</v>
@@ -10733,16 +10736,16 @@
         <v>2015</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O66" s="1">
         <v>6</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q66" s="1">
         <v>43.249127000000001</v>
@@ -10781,7 +10784,7 @@
         <v>42</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
@@ -10789,7 +10792,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C67" t="s">
         <v>174</v>
@@ -10815,16 +10818,16 @@
         <v>2015</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O67" s="1">
         <v>6</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q67" s="1">
         <v>43.249127000000001</v>
@@ -10871,7 +10874,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C68" t="s">
         <v>174</v>
@@ -10897,16 +10900,16 @@
         <v>2015</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O68" s="1">
         <v>3</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q68" s="1">
         <v>43.249127000000001</v>
@@ -10953,7 +10956,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C69" t="s">
         <v>61</v>
@@ -10978,7 +10981,7 @@
         <v>2015</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q69" s="1">
         <v>43.406547000000003</v>
@@ -11025,7 +11028,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C70" t="s">
         <v>166</v>
@@ -11050,7 +11053,7 @@
         <v>2015</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q70" s="1">
         <v>43.406547000000003</v>
@@ -11097,7 +11100,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C71" t="s">
         <v>174</v>
@@ -11122,7 +11125,7 @@
         <v>2015</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q71" s="1">
         <v>43.406547000000003</v>
@@ -11169,7 +11172,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
         <v>112</v>
@@ -11196,16 +11199,16 @@
         <v>2015</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q72" s="1">
         <v>43.406331000000002</v>
@@ -11252,7 +11255,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C73" t="s">
         <v>174</v>
@@ -11277,7 +11280,7 @@
         <v>2015</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q73" s="1">
         <v>43.399887999999997</v>
@@ -11324,24 +11327,24 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C74" t="s">
         <v>166</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K74" s="3">
         <v>42215</v>
@@ -11350,16 +11353,16 @@
         <v>2015</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O74" s="1">
         <v>2</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q74" s="1">
         <v>43.399887999999997</v>
@@ -11398,7 +11401,7 @@
         <v>42</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
@@ -11406,7 +11409,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C75" t="s">
         <v>61</v>
@@ -11431,7 +11434,7 @@
         <v>2015</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q75" s="1">
         <v>43.399887999999997</v>
@@ -11478,7 +11481,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C76" t="s">
         <v>166</v>
@@ -11503,7 +11506,7 @@
         <v>2015</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q76" s="1">
         <v>43.399887999999997</v>
@@ -11550,7 +11553,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C77" t="s">
         <v>210</v>
@@ -11573,16 +11576,16 @@
         <v>2015</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q77" s="1">
         <v>43.403602999999997</v>
@@ -11621,7 +11624,7 @@
         <v>42</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG77" s="1" t="s">
         <v>25</v>
@@ -11632,7 +11635,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C78" t="s">
         <v>214</v>
@@ -11657,16 +11660,16 @@
         <v>2015</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O78" s="1">
         <v>9</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q78" s="1">
         <v>43.403602999999997</v>
@@ -11713,7 +11716,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C79" t="s">
         <v>214</v>
@@ -11738,16 +11741,16 @@
         <v>2015</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q79" s="1">
         <v>43.403602999999997</v>
@@ -11794,13 +11797,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C80" t="s">
         <v>132</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>134</v>
@@ -11819,16 +11822,16 @@
         <v>2015</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q80" s="1">
         <v>43.403602999999997</v>
@@ -11875,7 +11878,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C81" t="s">
         <v>127</v>
@@ -11900,13 +11903,13 @@
         <v>2015</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O81" s="1">
         <v>30</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q81" s="1">
         <v>43.403602999999997</v>
@@ -11953,7 +11956,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -11978,13 +11981,13 @@
         <v>2019</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O82" s="1">
         <v>10</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q82" s="1">
         <v>43.464820861816399</v>
@@ -12028,7 +12031,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C83" t="s">
         <v>101</v>
@@ -12053,16 +12056,16 @@
         <v>2019</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O83" s="1">
         <v>2</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q83" s="1">
         <v>43.464820861816399</v>
@@ -12112,7 +12115,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
         <v>101</v>
@@ -12137,16 +12140,16 @@
         <v>2019</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q84" s="1">
         <v>43.464820861816399</v>
@@ -12190,7 +12193,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
         <v>71</v>
@@ -12215,13 +12218,13 @@
         <v>2019</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O85" s="1">
         <v>5</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q85" s="1">
         <v>43.464820861816399</v>
@@ -12265,7 +12268,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C86" t="s">
         <v>101</v>
@@ -12290,16 +12293,16 @@
         <v>2019</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q86" s="1">
         <v>43.464820861816399</v>
@@ -12343,7 +12346,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C87" t="s">
         <v>174</v>
@@ -12368,16 +12371,16 @@
         <v>2019</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O87" s="1">
         <v>10</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q87" s="1">
         <v>43.464820861816399</v>
@@ -12427,7 +12430,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C88" t="s">
         <v>174</v>
@@ -12452,16 +12455,16 @@
         <v>2019</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O88" s="1">
         <v>2</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q88" s="1">
         <v>43.464820861816399</v>
@@ -12511,13 +12514,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C89" t="s">
         <v>229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>231</v>
@@ -12537,16 +12540,16 @@
         <v>2019</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O89" s="1">
         <v>2</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q89" s="1">
         <v>43.143083650000001</v>
@@ -12582,7 +12585,7 @@
         <v>42</v>
       </c>
       <c r="AF89" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG89" s="1" t="s">
         <v>27</v>
@@ -12593,26 +12596,26 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H90" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K90" s="3">
         <v>43718</v>
@@ -12621,16 +12624,16 @@
         <v>2019</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q90" s="1">
         <v>43.142962799999999</v>
@@ -12663,10 +12666,10 @@
         <v>222</v>
       </c>
       <c r="AE90" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AG90" s="1" t="s">
         <v>27</v>
@@ -12677,7 +12680,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C91" t="s">
         <v>174</v>
@@ -12702,16 +12705,16 @@
         <v>2019</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q91" s="1">
         <v>43.141990661621101</v>
@@ -12752,7 +12755,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C92" t="s">
         <v>166</v>
@@ -12777,16 +12780,16 @@
         <v>2019</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q92" s="1">
         <v>43.143123626708999</v>
@@ -12827,7 +12830,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C93" t="s">
         <v>191</v>
@@ -12852,16 +12855,16 @@
         <v>2019</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q93" s="1">
         <v>43.144321441650398</v>
@@ -12902,7 +12905,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>234</v>
@@ -12920,10 +12923,10 @@
         <v>2019</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q94" s="1">
         <v>43.142962799999999</v>
@@ -12959,7 +12962,7 @@
         <v>42</v>
       </c>
       <c r="AF94" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG94" s="1" t="s">
         <v>27</v>
@@ -12970,7 +12973,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C95" t="s">
         <v>132</v>
@@ -12995,16 +12998,16 @@
         <v>2019</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q95" s="1">
         <v>43.143802642822301</v>
@@ -13045,7 +13048,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C96" t="s">
         <v>53</v>
@@ -13070,16 +13073,16 @@
         <v>2019</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q96" s="1">
         <v>43.140930179999998</v>
@@ -13123,7 +13126,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C97" t="s">
         <v>174</v>
@@ -13148,16 +13151,16 @@
         <v>2019</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q97" s="1">
         <v>43.137840270996101</v>
@@ -13201,7 +13204,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -13217,7 +13220,7 @@
       </c>
       <c r="I98"/>
       <c r="J98" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K98" s="3">
         <v>43719</v>
@@ -13226,16 +13229,16 @@
         <v>2019</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O98" s="1">
         <v>2</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q98" s="1">
         <v>43.137840270996101</v>
@@ -13271,7 +13274,7 @@
         <v>42</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG98" s="1" t="s">
         <v>27</v>
@@ -13282,7 +13285,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C99" t="s">
         <v>166</v>
@@ -13307,16 +13310,16 @@
         <v>2019</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q99" s="1">
         <v>43.1353950500488</v>
@@ -13360,7 +13363,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C100" t="s">
         <v>166</v>
@@ -13385,16 +13388,16 @@
         <v>2019</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q100" s="1">
         <v>43.133819580078097</v>
@@ -13444,7 +13447,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C101" t="s">
         <v>66</v>
@@ -13469,16 +13472,16 @@
         <v>2019</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O101" s="1">
         <v>4</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q101" s="1">
         <v>43.133514404296903</v>
@@ -13528,7 +13531,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C102" t="s">
         <v>66</v>
@@ -13553,16 +13556,16 @@
         <v>2019</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q102" s="1">
         <v>43.133514404296903</v>
@@ -13612,7 +13615,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C103" t="s">
         <v>53</v>
@@ -13637,16 +13640,16 @@
         <v>2019</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O103" s="1">
         <v>1</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q103" s="1">
         <v>43.133541107177699</v>
@@ -13690,7 +13693,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
@@ -13706,7 +13709,7 @@
       </c>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K104" s="3">
         <v>43719</v>
@@ -13715,16 +13718,16 @@
         <v>2019</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O104" s="1">
         <v>1</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q104" s="1">
         <v>43.133541107177699</v>
@@ -13766,7 +13769,7 @@
         <v>42</v>
       </c>
       <c r="AF104" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG104" s="1" t="s">
         <v>25</v>
@@ -13777,13 +13780,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C105" t="s">
         <v>229</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>231</v>
@@ -13803,16 +13806,16 @@
         <v>2019</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O105" s="1">
         <v>1</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q105" s="1">
         <v>43.133533333332998</v>
@@ -13848,7 +13851,7 @@
         <v>42</v>
       </c>
       <c r="AF105" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>27</v>
@@ -13859,7 +13862,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C106" t="s">
         <v>105</v>
@@ -13884,16 +13887,16 @@
         <v>2019</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O106" s="1">
         <v>1</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q106" s="1">
         <v>43.133510589599602</v>
@@ -13943,7 +13946,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s">
         <v>153</v>
@@ -13968,16 +13971,16 @@
         <v>2019</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O107" s="1">
         <v>2</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q107" s="1">
         <v>43.133502960000001</v>
@@ -14027,7 +14030,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s">
         <v>247</v>
@@ -14052,16 +14055,16 @@
         <v>2019</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O108" s="1">
         <v>1</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q108" s="1">
         <v>43.133502960000001</v>
@@ -14103,7 +14106,7 @@
         <v>42</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AG108" s="1" t="s">
         <v>25</v>
@@ -14114,7 +14117,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C109" t="s">
         <v>195</v>
@@ -14139,16 +14142,16 @@
         <v>2019</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O109" s="1">
         <v>1</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q109" s="1">
         <v>43.13351059</v>
@@ -14198,7 +14201,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C110" t="s">
         <v>32</v>
@@ -14214,7 +14217,7 @@
       </c>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K110" s="3">
         <v>43719</v>
@@ -14223,16 +14226,16 @@
         <v>2019</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O110" s="1">
         <v>11</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q110" s="1">
         <v>43.133861541747997</v>
@@ -14274,7 +14277,7 @@
         <v>42</v>
       </c>
       <c r="AF110" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AG110" s="1" t="s">
         <v>25</v>
@@ -14285,7 +14288,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C111" t="s">
         <v>66</v>
@@ -14310,16 +14313,16 @@
         <v>2019</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O111" s="1">
         <v>7</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q111" s="1">
         <v>43.133598327636697</v>
@@ -14369,7 +14372,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C112" t="s">
         <v>66</v>
@@ -14394,16 +14397,16 @@
         <v>2019</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O112" s="1">
         <v>2</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q112" s="1">
         <v>43.133598327636697</v>
@@ -14453,7 +14456,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C113" t="s">
         <v>174</v>
@@ -14478,16 +14481,16 @@
         <v>2019</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O113" s="1">
         <v>3</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q113" s="1">
         <v>43.134674072265597</v>
@@ -14537,7 +14540,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C114" t="s">
         <v>174</v>
@@ -14562,16 +14565,16 @@
         <v>2019</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O114" s="1">
         <v>1</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q114" s="1">
         <v>43.134674072265597</v>
@@ -14621,7 +14624,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C115" t="s">
         <v>253</v>
@@ -14646,16 +14649,16 @@
         <v>2019</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O115" s="1">
         <v>1</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q115" s="1">
         <v>43.134761810302699</v>
@@ -14705,7 +14708,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C116" t="s">
         <v>166</v>
@@ -14730,16 +14733,16 @@
         <v>2019</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O116" s="1">
         <v>2</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q116" s="1">
         <v>43.135543823242202</v>
@@ -14789,7 +14792,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C117" t="s">
         <v>137</v>
@@ -14814,16 +14817,16 @@
         <v>2019</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O117" s="1">
         <v>4</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q117" s="1">
         <v>43.153945922851598</v>
@@ -14873,7 +14876,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C118" t="s">
         <v>174</v>
@@ -14898,16 +14901,16 @@
         <v>2019</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O118" s="1">
         <v>1</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q118" s="1">
         <v>43.154331207275398</v>
@@ -14943,7 +14946,7 @@
         <v>90</v>
       </c>
       <c r="AF118" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG118" s="1" t="s">
         <v>27</v>
@@ -14954,7 +14957,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C119" t="s">
         <v>153</v>
@@ -14979,16 +14982,16 @@
         <v>2019</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O119" s="1">
         <v>2</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q119" s="1">
         <v>43.154647827148402</v>
@@ -15038,7 +15041,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C120" t="s">
         <v>195</v>
@@ -15063,16 +15066,16 @@
         <v>2019</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O120" s="1">
         <v>3</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q120" s="1">
         <v>43.1546630859375</v>
@@ -15114,7 +15117,7 @@
         <v>42</v>
       </c>
       <c r="AF120" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AG120" s="1" t="s">
         <v>25</v>
@@ -15125,7 +15128,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C121" t="s">
         <v>195</v>
@@ -15150,16 +15153,16 @@
         <v>2019</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O121" s="1">
         <v>2</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q121" s="1">
         <v>43.1546630859375</v>
@@ -15201,7 +15204,7 @@
         <v>42</v>
       </c>
       <c r="AF121" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AG121" s="1" t="s">
         <v>25</v>
@@ -15212,7 +15215,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>195</v>
@@ -15230,16 +15233,16 @@
         <v>2019</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O122" s="1">
         <v>1</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q122" s="1">
         <v>43.1546630859375</v>
@@ -15281,7 +15284,7 @@
         <v>42</v>
       </c>
       <c r="AF122" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AG122" s="1" t="s">
         <v>25</v>
@@ -15292,7 +15295,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C123" t="s">
         <v>148</v>
@@ -15317,16 +15320,16 @@
         <v>2019</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O123" s="1">
         <v>1</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q123" s="1">
         <v>43.1546440124512</v>
@@ -15376,7 +15379,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C124" t="s">
         <v>265</v>
@@ -15401,16 +15404,16 @@
         <v>2019</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O124" s="1">
         <v>1</v>
       </c>
       <c r="P124" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q124" s="1">
         <v>43.154911040000002</v>
@@ -15454,7 +15457,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C125" t="s">
         <v>66</v>
@@ -15479,16 +15482,16 @@
         <v>2019</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O125" s="1">
         <v>1</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q125" s="1">
         <v>43.154911041259801</v>
@@ -15538,7 +15541,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C126" t="s">
         <v>66</v>
@@ -15563,16 +15566,16 @@
         <v>2019</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O126" s="1">
         <v>4</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q126" s="1">
         <v>43.154911041259801</v>
@@ -15622,7 +15625,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C127" t="s">
         <v>32</v>
@@ -15638,7 +15641,7 @@
       </c>
       <c r="I127"/>
       <c r="J127" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K127" s="3">
         <v>43720</v>
@@ -15647,16 +15650,16 @@
         <v>2019</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O127" s="1">
         <v>20</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q127" s="1">
         <v>43.155055999755902</v>
@@ -15698,7 +15701,7 @@
         <v>42</v>
       </c>
       <c r="AF127" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG127" s="1" t="s">
         <v>25</v>
@@ -15709,7 +15712,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C128" t="s">
         <v>32</v>
@@ -15725,7 +15728,7 @@
       </c>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K128" s="3">
         <v>43720</v>
@@ -15734,16 +15737,16 @@
         <v>2019</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O128" s="1">
         <v>19</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q128" s="1">
         <v>43.155055999755902</v>
@@ -15785,7 +15788,7 @@
         <v>42</v>
       </c>
       <c r="AF128" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG128" s="1" t="s">
         <v>25</v>
@@ -15796,7 +15799,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C129" t="s">
         <v>174</v>
@@ -15821,16 +15824,16 @@
         <v>2019</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O129" s="1">
         <v>5</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q129" s="1">
         <v>43.155055999755902</v>
@@ -15872,7 +15875,7 @@
         <v>90</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG129" s="1" t="s">
         <v>25</v>
@@ -15883,7 +15886,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C130" t="s">
         <v>174</v>
@@ -15908,16 +15911,16 @@
         <v>2019</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O130" s="1">
         <v>1</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q130" s="1">
         <v>43.155055999755902</v>
@@ -15959,7 +15962,7 @@
         <v>90</v>
       </c>
       <c r="AF130" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG130" s="1" t="s">
         <v>25</v>
@@ -15970,7 +15973,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C131" t="s">
         <v>66</v>
@@ -15995,16 +15998,16 @@
         <v>2019</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O131" s="1">
         <v>8</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q131" s="1">
         <v>43.155055999755902</v>
@@ -16054,7 +16057,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C132" t="s">
         <v>66</v>
@@ -16079,16 +16082,16 @@
         <v>2019</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O132" s="1">
         <v>8</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q132" s="1">
         <v>43.155055999755902</v>
@@ -16138,23 +16141,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C133" t="s">
         <v>274</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H133" t="s">
-        <v>277</v>
+      <c r="H133" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I133"/>
       <c r="J133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K133" s="3">
         <v>43720</v>
@@ -16163,16 +16166,16 @@
         <v>2019</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O133" s="1">
         <v>2</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q133" s="1">
         <v>43.155055999755902</v>
@@ -16222,23 +16225,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C134" t="s">
         <v>274</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H134" t="s">
-        <v>277</v>
+      <c r="H134" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I134"/>
       <c r="J134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K134" s="3">
         <v>43720</v>
@@ -16247,16 +16250,16 @@
         <v>2019</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O134" s="1">
         <v>5</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q134" s="1">
         <v>43.155055999755902</v>
@@ -16306,23 +16309,23 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C135" t="s">
+        <v>278</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="H135" t="s">
         <v>281</v>
-      </c>
-      <c r="H135" t="s">
-        <v>282</v>
       </c>
       <c r="I135"/>
       <c r="J135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K135" s="3">
         <v>43720</v>
@@ -16331,16 +16334,16 @@
         <v>2019</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O135" s="1">
         <v>2</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q135" s="1">
         <v>43.155055999755902</v>
@@ -16382,7 +16385,7 @@
         <v>42</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG135" s="1" t="s">
         <v>25</v>
@@ -16393,23 +16396,23 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C136" t="s">
+        <v>278</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="H136" t="s">
         <v>281</v>
-      </c>
-      <c r="H136" t="s">
-        <v>282</v>
       </c>
       <c r="I136"/>
       <c r="J136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K136" s="3">
         <v>43720</v>
@@ -16418,16 +16421,16 @@
         <v>2019</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O136" s="1">
         <v>5</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q136" s="1">
         <v>43.155055999755902</v>
@@ -16469,7 +16472,7 @@
         <v>42</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AG136" s="1" t="s">
         <v>25</v>
@@ -16480,26 +16483,26 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H137" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I137"/>
       <c r="J137" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K137" s="3">
         <v>43720</v>
@@ -16508,16 +16511,16 @@
         <v>2019</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O137" s="1">
         <v>1</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q137" s="1">
         <v>43.155258333333002</v>
@@ -16550,10 +16553,10 @@
         <v>222</v>
       </c>
       <c r="AE137" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AG137" s="1" t="s">
         <v>25</v>
@@ -16564,7 +16567,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C138" t="s">
         <v>32</v>
@@ -16580,7 +16583,7 @@
       </c>
       <c r="I138"/>
       <c r="J138" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K138" s="3">
         <v>43720</v>
@@ -16589,16 +16592,16 @@
         <v>2019</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O138" s="1">
         <v>9</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q138" s="1">
         <v>43.158176422119098</v>
@@ -16640,7 +16643,7 @@
         <v>42</v>
       </c>
       <c r="AF138" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG138" s="1" t="s">
         <v>25</v>
@@ -16651,7 +16654,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C139" t="s">
         <v>195</v>
@@ -16676,16 +16679,16 @@
         <v>2019</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O139" s="1">
         <v>3</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q139" s="1">
         <v>43.158176422119098</v>
@@ -16727,7 +16730,7 @@
         <v>42</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AG139" s="1" t="s">
         <v>25</v>
@@ -16738,23 +16741,23 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C140" t="s">
         <v>274</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H140" t="s">
-        <v>277</v>
+      <c r="H140" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I140"/>
       <c r="J140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K140" s="3">
         <v>43720</v>
@@ -16763,16 +16766,16 @@
         <v>2019</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O140" s="1">
         <v>1</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q140" s="1">
         <v>43.158176422119098</v>
@@ -16822,7 +16825,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C141" t="s">
         <v>66</v>
@@ -16838,7 +16841,7 @@
       </c>
       <c r="I141"/>
       <c r="J141" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K141" s="3">
         <v>43720</v>
@@ -16847,16 +16850,16 @@
         <v>2019</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O141" s="1">
         <v>1</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q141" s="1">
         <v>43.158176422119098</v>
@@ -16906,26 +16909,26 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="H142" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="I142"/>
       <c r="J142" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="K142" s="3">
         <v>43720</v>
@@ -16934,16 +16937,16 @@
         <v>2019</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O142" s="1">
         <v>1</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q142" s="1">
         <v>43.158149999999999</v>
@@ -16976,10 +16979,10 @@
         <v>222</v>
       </c>
       <c r="AE142" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AF142" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AG142" s="1" t="s">
         <v>25</v>
@@ -16990,23 +16993,23 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C143" t="s">
         <v>137</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>285</v>
+        <v>661</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H143" t="s">
-        <v>286</v>
+        <v>662</v>
       </c>
       <c r="I143"/>
       <c r="J143" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K143" s="3">
         <v>43720</v>
@@ -17015,16 +17018,16 @@
         <v>2019</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O143" s="1">
         <v>1</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q143" s="1">
         <v>43.160640716552699</v>
@@ -17074,23 +17077,23 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C144" t="s">
         <v>265</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H144" t="s">
         <v>288</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H144" t="s">
-        <v>290</v>
       </c>
       <c r="I144"/>
       <c r="J144" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K144" s="3">
         <v>43720</v>
@@ -17099,16 +17102,16 @@
         <v>2019</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O144" s="1">
         <v>1</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q144" s="1">
         <v>43.162002563476598</v>
@@ -17158,7 +17161,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C145" t="s">
         <v>66</v>
@@ -17174,7 +17177,7 @@
       </c>
       <c r="I145"/>
       <c r="J145" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K145" s="3">
         <v>43720</v>
@@ -17183,16 +17186,16 @@
         <v>2019</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O145" s="1">
         <v>1</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q145" s="1">
         <v>43.162038889999998</v>
@@ -17236,7 +17239,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C146" t="s">
         <v>166</v>
@@ -17261,16 +17264,16 @@
         <v>2019</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O146" s="1">
         <v>2</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q146" s="1">
         <v>43.128883361816399</v>
@@ -17282,7 +17285,7 @@
         <v>25</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U146" s="1" t="s">
         <v>37</v>
@@ -17320,7 +17323,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C147" t="s">
         <v>66</v>
@@ -17336,7 +17339,7 @@
       </c>
       <c r="I147"/>
       <c r="J147" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K147" s="3">
         <v>43721</v>
@@ -17345,16 +17348,16 @@
         <v>2019</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O147" s="1">
         <v>3</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q147" s="1">
         <v>43.128883361816399</v>
@@ -17366,7 +17369,7 @@
         <v>25</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U147" s="1" t="s">
         <v>37</v>
@@ -17404,7 +17407,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C148" t="s">
         <v>66</v>
@@ -17420,7 +17423,7 @@
       </c>
       <c r="I148"/>
       <c r="J148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K148" s="3">
         <v>43721</v>
@@ -17429,16 +17432,16 @@
         <v>2019</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O148" s="1">
         <v>1</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q148" s="1">
         <v>43.128883361816399</v>
@@ -17450,7 +17453,7 @@
         <v>25</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U148" s="1" t="s">
         <v>37</v>
@@ -17488,7 +17491,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C149" t="s">
         <v>253</v>
@@ -17513,16 +17516,16 @@
         <v>2019</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O149" s="1">
         <v>1</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q149" s="1">
         <v>43.128696441650398</v>
@@ -17534,7 +17537,7 @@
         <v>25</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U149" s="1" t="s">
         <v>37</v>
@@ -17572,7 +17575,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C150" t="s">
         <v>71</v>
@@ -17597,16 +17600,16 @@
         <v>2019</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O150" s="1">
         <v>3</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q150" s="1">
         <v>43.128669738769503</v>
@@ -17618,7 +17621,7 @@
         <v>25</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U150" s="1" t="s">
         <v>37</v>
@@ -17656,7 +17659,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C151" t="s">
         <v>71</v>
@@ -17681,16 +17684,16 @@
         <v>2019</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O151" s="1">
         <v>2</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q151" s="1">
         <v>43.128669738769503</v>
@@ -17702,7 +17705,7 @@
         <v>25</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U151" s="1" t="s">
         <v>37</v>
@@ -17740,23 +17743,23 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C152" t="s">
         <v>66</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H152" t="s">
         <v>295</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H152" t="s">
-        <v>297</v>
       </c>
       <c r="I152"/>
       <c r="J152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K152" s="3">
         <v>43721</v>
@@ -17765,13 +17768,13 @@
         <v>2019</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O152" s="1">
         <v>50</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q152" s="1">
         <v>43.130793480000001</v>
@@ -17783,7 +17786,7 @@
         <v>25</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="U152" s="1" t="s">
         <v>37</v>
@@ -17821,23 +17824,23 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C153" t="s">
         <v>66</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H153" t="s">
-        <v>301</v>
       </c>
       <c r="I153"/>
       <c r="J153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K153" s="3">
         <v>43721</v>
@@ -17846,16 +17849,16 @@
         <v>2019</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O153" s="1">
         <v>1</v>
       </c>
       <c r="P153" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q153" s="1">
         <v>43.407241821289098</v>
@@ -17867,10 +17870,10 @@
         <v>25</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="U153" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V153" s="1" t="s">
         <v>38</v>
@@ -17899,7 +17902,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C154" t="s">
         <v>101</v>
@@ -17924,10 +17927,10 @@
         <v>2019</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P154" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q154" s="1">
         <v>43.411754608154297</v>
@@ -17939,10 +17942,10 @@
         <v>25</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U154" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V154" s="1" t="s">
         <v>38</v>
@@ -17971,13 +17974,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C155" t="s">
         <v>66</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>146</v>
@@ -17996,16 +17999,16 @@
         <v>2019</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O155" s="1">
         <v>11</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q155" s="1">
         <v>43.411754608154297</v>
@@ -18017,10 +18020,10 @@
         <v>25</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U155" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V155" s="1" t="s">
         <v>38</v>
@@ -18055,13 +18058,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C156" t="s">
         <v>66</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>146</v>
@@ -18080,16 +18083,16 @@
         <v>2019</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O156" s="1">
         <v>12</v>
       </c>
       <c r="P156" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q156" s="1">
         <v>43.411754608154297</v>
@@ -18101,10 +18104,10 @@
         <v>25</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U156" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V156" s="1" t="s">
         <v>38</v>
@@ -18139,23 +18142,23 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C157" t="s">
         <v>66</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H157" t="s">
         <v>299</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H157" t="s">
-        <v>301</v>
       </c>
       <c r="I157"/>
       <c r="J157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K157" s="3">
         <v>43722</v>
@@ -18164,16 +18167,16 @@
         <v>2019</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O157" s="1">
         <v>17</v>
       </c>
       <c r="P157" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q157" s="1">
         <v>43.411773681640597</v>
@@ -18185,10 +18188,10 @@
         <v>25</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U157" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V157" s="1" t="s">
         <v>38</v>
@@ -18223,23 +18226,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C158" t="s">
         <v>66</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H158" t="s">
         <v>299</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H158" t="s">
-        <v>301</v>
       </c>
       <c r="I158"/>
       <c r="J158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K158" s="3">
         <v>43722</v>
@@ -18248,16 +18251,16 @@
         <v>2019</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O158" s="1">
         <v>6</v>
       </c>
       <c r="P158" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q158" s="1">
         <v>43.411773681640597</v>
@@ -18269,10 +18272,10 @@
         <v>25</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U158" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V158" s="1" t="s">
         <v>38</v>
@@ -18307,7 +18310,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C159" t="s">
         <v>66</v>
@@ -18332,13 +18335,13 @@
         <v>2019</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O159" s="1">
         <v>40</v>
       </c>
       <c r="P159" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q159" s="1">
         <v>43.411785125732401</v>
@@ -18350,10 +18353,10 @@
         <v>25</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U159" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V159" s="1" t="s">
         <v>38</v>
@@ -18388,19 +18391,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C160" t="s">
         <v>153</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I160"/>
       <c r="J160" t="s">
@@ -18413,13 +18416,13 @@
         <v>2019</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O160" s="1">
         <v>40</v>
       </c>
       <c r="P160" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q160" s="1">
         <v>43.412158966064503</v>
@@ -18431,10 +18434,10 @@
         <v>25</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U160" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V160" s="1" t="s">
         <v>38</v>
@@ -18461,7 +18464,7 @@
         <v>42</v>
       </c>
       <c r="AF160" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG160" s="1" t="s">
         <v>25</v>
@@ -18472,7 +18475,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C161" t="s">
         <v>265</v>
@@ -18497,16 +18500,16 @@
         <v>2019</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O161" s="1">
         <v>3</v>
       </c>
       <c r="P161" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q161" s="1">
         <v>43.412158966064503</v>
@@ -18518,10 +18521,10 @@
         <v>25</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U161" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V161" s="1" t="s">
         <v>38</v>
@@ -18556,23 +18559,23 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C162" t="s">
         <v>66</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H162" t="s">
         <v>308</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H162" t="s">
-        <v>310</v>
       </c>
       <c r="I162"/>
       <c r="J162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K162" s="3">
         <v>43722</v>
@@ -18581,16 +18584,16 @@
         <v>2019</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O162" s="1">
         <v>2</v>
       </c>
       <c r="P162" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q162" s="1">
         <v>43.412178039550803</v>
@@ -18602,10 +18605,10 @@
         <v>25</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U162" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V162" s="1" t="s">
         <v>38</v>
@@ -18632,7 +18635,7 @@
         <v>42</v>
       </c>
       <c r="AF162" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG162" s="1" t="s">
         <v>25</v>
@@ -18643,23 +18646,23 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C163" t="s">
         <v>66</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H163" t="s">
         <v>308</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H163" t="s">
-        <v>310</v>
       </c>
       <c r="I163"/>
       <c r="J163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K163" s="3">
         <v>43722</v>
@@ -18668,16 +18671,16 @@
         <v>2019</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O163" s="1">
         <v>4</v>
       </c>
       <c r="P163" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q163" s="1">
         <v>43.412178039550803</v>
@@ -18689,10 +18692,10 @@
         <v>25</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U163" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V163" s="1" t="s">
         <v>38</v>
@@ -18719,7 +18722,7 @@
         <v>42</v>
       </c>
       <c r="AF163" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG163" s="1" t="s">
         <v>25</v>
@@ -18730,7 +18733,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C164" t="s">
         <v>53</v>
@@ -18755,16 +18758,16 @@
         <v>2019</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O164" s="1">
         <v>9</v>
       </c>
       <c r="P164" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q164" s="1">
         <v>43.412326812744098</v>
@@ -18776,10 +18779,10 @@
         <v>25</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U164" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V164" s="1" t="s">
         <v>38</v>
@@ -18814,7 +18817,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C165" t="s">
         <v>158</v>
@@ -18839,16 +18842,16 @@
         <v>2019</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O165" s="1">
         <v>3</v>
       </c>
       <c r="P165" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q165" s="1">
         <v>43.412326812744098</v>
@@ -18860,10 +18863,10 @@
         <v>25</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U165" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V165" s="1" t="s">
         <v>38</v>
@@ -18898,10 +18901,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K166" s="3">
         <v>43722</v>
@@ -18910,16 +18913,16 @@
         <v>2019</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O166" s="1">
         <v>1</v>
       </c>
       <c r="P166" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q166" s="1">
         <v>43.412326812744098</v>
@@ -18931,10 +18934,10 @@
         <v>25</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U166" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V166" s="1" t="s">
         <v>38</v>
@@ -18961,7 +18964,7 @@
         <v>42</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG166" s="1" t="s">
         <v>25</v>
@@ -18972,10 +18975,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K167" s="3">
         <v>43722</v>
@@ -18984,16 +18987,16 @@
         <v>2019</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O167" s="1">
         <v>2</v>
       </c>
       <c r="P167" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q167" s="1">
         <v>43.412326812744098</v>
@@ -19005,10 +19008,10 @@
         <v>25</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U167" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V167" s="1" t="s">
         <v>38</v>
@@ -19035,7 +19038,7 @@
         <v>42</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG167" s="1" t="s">
         <v>25</v>
@@ -19046,10 +19049,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K168" s="3">
         <v>43722</v>
@@ -19058,16 +19061,16 @@
         <v>2019</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O168" s="1">
         <v>1</v>
       </c>
       <c r="P168" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q168" s="1">
         <v>43.412326812744098</v>
@@ -19079,10 +19082,10 @@
         <v>25</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U168" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V168" s="1" t="s">
         <v>38</v>
@@ -19109,7 +19112,7 @@
         <v>42</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AG168" s="1" t="s">
         <v>25</v>
@@ -19120,23 +19123,23 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C169" t="s">
+        <v>310</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="H169" t="s">
         <v>313</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H169" t="s">
-        <v>315</v>
       </c>
       <c r="I169"/>
       <c r="J169" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K169" s="3">
         <v>43722</v>
@@ -19145,16 +19148,16 @@
         <v>2019</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O169" s="1">
         <v>1</v>
       </c>
       <c r="P169" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q169" s="1">
         <v>43.412326810000003</v>
@@ -19166,10 +19169,10 @@
         <v>25</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U169" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V169" s="1" t="s">
         <v>38</v>
@@ -19204,23 +19207,23 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C170" t="s">
         <v>274</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H170" t="s">
-        <v>277</v>
+      <c r="H170" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I170"/>
       <c r="J170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K170" s="3">
         <v>43722</v>
@@ -19229,13 +19232,13 @@
         <v>2019</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O170" s="1">
         <v>50</v>
       </c>
       <c r="P170" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q170" s="1">
         <v>43.412559509277301</v>
@@ -19247,10 +19250,10 @@
         <v>25</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U170" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V170" s="1" t="s">
         <v>38</v>
@@ -19285,7 +19288,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C171" t="s">
         <v>148</v>
@@ -19310,13 +19313,13 @@
         <v>2019</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O171" s="1">
         <v>30</v>
       </c>
       <c r="P171" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q171" s="1">
         <v>43.412540435791001</v>
@@ -19328,10 +19331,10 @@
         <v>25</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U171" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V171" s="1" t="s">
         <v>38</v>
@@ -19358,7 +19361,7 @@
         <v>42</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG171" s="1" t="s">
         <v>25</v>
@@ -19369,7 +19372,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C172" t="s">
         <v>105</v>
@@ -19394,16 +19397,16 @@
         <v>2019</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O172" s="1">
         <v>1</v>
       </c>
       <c r="P172" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q172" s="1">
         <v>43.412540435791001</v>
@@ -19415,10 +19418,10 @@
         <v>25</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U172" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V172" s="1" t="s">
         <v>38</v>
@@ -19453,7 +19456,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C173" t="s">
         <v>101</v>
@@ -19478,16 +19481,16 @@
         <v>2019</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O173" s="1">
         <v>1</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q173" s="1">
         <v>43.413608551025398</v>
@@ -19499,10 +19502,10 @@
         <v>25</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U173" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V173" s="1" t="s">
         <v>38</v>
@@ -19531,23 +19534,23 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C174" t="s">
         <v>66</v>
       </c>
       <c r="D174" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H174" t="s">
         <v>308</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H174" t="s">
-        <v>310</v>
       </c>
       <c r="I174"/>
       <c r="J174" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K174" s="3">
         <v>43722</v>
@@ -19556,16 +19559,16 @@
         <v>2019</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O174" s="1">
         <v>4</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q174" s="1">
         <v>43.413608551025398</v>
@@ -19577,10 +19580,10 @@
         <v>25</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U174" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V174" s="1" t="s">
         <v>38</v>
@@ -19607,7 +19610,7 @@
         <v>42</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG174" s="1" t="s">
         <v>25</v>
@@ -19618,23 +19621,23 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C175" t="s">
         <v>66</v>
       </c>
       <c r="D175" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H175" t="s">
         <v>308</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H175" t="s">
-        <v>310</v>
       </c>
       <c r="I175"/>
       <c r="J175" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K175" s="3">
         <v>43722</v>
@@ -19643,16 +19646,16 @@
         <v>2019</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O175" s="1">
         <v>10</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q175" s="1">
         <v>43.413608551025398</v>
@@ -19664,10 +19667,10 @@
         <v>25</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U175" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>38</v>
@@ -19694,7 +19697,7 @@
         <v>42</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG175" s="1" t="s">
         <v>25</v>
@@ -19705,7 +19708,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C176" t="s">
         <v>66</v>
@@ -19730,13 +19733,13 @@
         <v>2019</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O176" s="1">
         <v>40</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q176" s="1">
         <v>43.413608551025398</v>
@@ -19748,10 +19751,10 @@
         <v>25</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U176" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V176" s="1" t="s">
         <v>38</v>
@@ -19786,13 +19789,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C177" t="s">
         <v>66</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>146</v>
@@ -19811,16 +19814,16 @@
         <v>2019</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O177" s="1">
         <v>5</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q177" s="1">
         <v>43.413608551025398</v>
@@ -19832,10 +19835,10 @@
         <v>25</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U177" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V177" s="1" t="s">
         <v>38</v>
@@ -19870,7 +19873,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C178" t="s">
         <v>148</v>
@@ -19895,13 +19898,13 @@
         <v>2019</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O178" s="1">
         <v>25</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q178" s="1">
         <v>43.413608551025398</v>
@@ -19913,10 +19916,10 @@
         <v>25</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U178" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V178" s="1" t="s">
         <v>38</v>
@@ -19943,7 +19946,7 @@
         <v>42</v>
       </c>
       <c r="AF178" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG178" s="1" t="s">
         <v>25</v>
@@ -19954,19 +19957,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C179" t="s">
         <v>153</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>155</v>
       </c>
       <c r="H179" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I179"/>
       <c r="J179" t="s">
@@ -19979,13 +19982,13 @@
         <v>2019</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O179" s="1">
         <v>40</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q179" s="1">
         <v>43.413608551025398</v>
@@ -19997,10 +20000,10 @@
         <v>25</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U179" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V179" s="1" t="s">
         <v>38</v>
@@ -20027,7 +20030,7 @@
         <v>42</v>
       </c>
       <c r="AF179" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AG179" s="1" t="s">
         <v>25</v>
@@ -20038,7 +20041,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C180" t="s">
         <v>53</v>
@@ -20063,16 +20066,16 @@
         <v>2019</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O180" s="1">
         <v>11</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q180" s="1">
         <v>43.413608551025398</v>
@@ -20084,10 +20087,10 @@
         <v>25</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U180" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V180" s="1" t="s">
         <v>38</v>
@@ -20122,7 +20125,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C181" t="s">
         <v>53</v>
@@ -20147,16 +20150,16 @@
         <v>2019</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O181" s="1">
         <v>2</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q181" s="1">
         <v>43.413608551025398</v>
@@ -20168,10 +20171,10 @@
         <v>25</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U181" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V181" s="1" t="s">
         <v>38</v>
@@ -20206,23 +20209,23 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C182" t="s">
         <v>274</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>275</v>
+        <v>663</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H182" t="s">
-        <v>277</v>
+      <c r="H182" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I182"/>
       <c r="J182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K182" s="3">
         <v>43722</v>
@@ -20231,13 +20234,13 @@
         <v>2019</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O182" s="1">
         <v>40</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q182" s="1">
         <v>43.413608551025398</v>
@@ -20249,10 +20252,10 @@
         <v>25</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U182" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V182" s="1" t="s">
         <v>38</v>
@@ -20287,7 +20290,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C183" t="s">
         <v>105</v>
@@ -20312,16 +20315,16 @@
         <v>2019</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O183" s="1">
         <v>13</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q183" s="1">
         <v>43.413608551025398</v>
@@ -20333,10 +20336,10 @@
         <v>25</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U183" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>38</v>
@@ -20371,23 +20374,23 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C184" t="s">
         <v>105</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H184" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I184"/>
       <c r="J184" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K184" s="3">
         <v>43722</v>
@@ -20396,13 +20399,13 @@
         <v>2019</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O184" s="1">
         <v>10</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q184" s="1">
         <v>43.413608551025398</v>
@@ -20414,10 +20417,10 @@
         <v>25</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U184" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V184" s="1" t="s">
         <v>38</v>
@@ -20452,7 +20455,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C185" t="s">
         <v>195</v>
@@ -20477,16 +20480,16 @@
         <v>2019</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O185" s="1">
         <v>3</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q185" s="1">
         <v>43.413608551025398</v>
@@ -20498,10 +20501,10 @@
         <v>25</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U185" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V185" s="1" t="s">
         <v>38</v>
@@ -20536,7 +20539,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C186" t="s">
         <v>158</v>
@@ -20561,16 +20564,16 @@
         <v>2019</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O186" s="1">
         <v>2</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q186" s="1">
         <v>43.413608551025398</v>
@@ -20582,10 +20585,10 @@
         <v>25</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U186" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V186" s="1" t="s">
         <v>38</v>
@@ -20620,7 +20623,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C187" t="s">
         <v>158</v>
@@ -20645,16 +20648,16 @@
         <v>2019</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O187" s="1">
         <v>1</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q187" s="1">
         <v>43.413608551025398</v>
@@ -20666,10 +20669,10 @@
         <v>25</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U187" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V187" s="1" t="s">
         <v>38</v>
@@ -20704,7 +20707,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C188" t="s">
         <v>265</v>
@@ -20729,16 +20732,16 @@
         <v>2019</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O188" s="1">
         <v>2</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q188" s="1">
         <v>43.413608551025398</v>
@@ -20750,10 +20753,10 @@
         <v>25</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U188" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V188" s="1" t="s">
         <v>38</v>
@@ -20788,7 +20791,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C189" t="s">
         <v>101</v>
@@ -20813,16 +20816,16 @@
         <v>2019</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O189" s="1">
         <v>1</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q189" s="1">
         <v>43.413608551025398</v>
@@ -20834,10 +20837,10 @@
         <v>25</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="U189" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V189" s="1" t="s">
         <v>38</v>
@@ -20866,23 +20869,23 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C190" t="s">
         <v>210</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H190" t="s">
         <v>319</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H190" t="s">
-        <v>321</v>
       </c>
       <c r="I190"/>
       <c r="J190" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K190" s="3">
         <v>43722</v>
@@ -20891,16 +20894,16 @@
         <v>2019</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O190" s="1">
         <v>22</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q190" s="1">
         <v>43.408336639404297</v>
@@ -20912,10 +20915,10 @@
         <v>25</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U190" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V190" s="1" t="s">
         <v>38</v>
@@ -20950,7 +20953,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C191" t="s">
         <v>71</v>
@@ -20975,10 +20978,10 @@
         <v>2019</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q191" s="1">
         <v>43.416450500488303</v>
@@ -20990,10 +20993,10 @@
         <v>25</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U191" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V191" s="1" t="s">
         <v>38</v>
@@ -21022,7 +21025,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C192" t="s">
         <v>101</v>
@@ -21047,10 +21050,10 @@
         <v>2019</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q192" s="1">
         <v>43.416461944580099</v>
@@ -21062,10 +21065,10 @@
         <v>25</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U192" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>38</v>
@@ -21094,7 +21097,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C193" t="s">
         <v>101</v>
@@ -21119,10 +21122,10 @@
         <v>2019</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q193" s="1">
         <v>43.416458129882798</v>
@@ -21134,10 +21137,10 @@
         <v>25</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U193" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V193" s="1" t="s">
         <v>38</v>
@@ -21166,7 +21169,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C194" t="s">
         <v>66</v>
@@ -21193,16 +21196,16 @@
         <v>2019</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O194" s="1">
         <v>1</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q194" s="1">
         <v>43.416446685791001</v>
@@ -21214,10 +21217,10 @@
         <v>25</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="U194" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="V194" s="1" t="s">
         <v>38</v>
@@ -21246,7 +21249,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C195" t="s">
         <v>214</v>
@@ -21271,7 +21274,7 @@
         <v>2019</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q195" s="1">
         <v>43.347869873046903</v>
@@ -21283,10 +21286,10 @@
         <v>25</v>
       </c>
       <c r="T195" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U195" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V195" s="1" t="s">
         <v>38</v>
@@ -21315,7 +21318,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C196" t="s">
         <v>127</v>
@@ -21340,7 +21343,7 @@
         <v>2019</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q196" s="1">
         <v>43.3478813171387</v>
@@ -21352,10 +21355,10 @@
         <v>25</v>
       </c>
       <c r="T196" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U196" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V196" s="1" t="s">
         <v>38</v>
@@ -21384,19 +21387,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C197" t="s">
+        <v>325</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="H197" t="s">
         <v>328</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H197" t="s">
-        <v>330</v>
       </c>
       <c r="I197"/>
       <c r="J197" t="s">
@@ -21409,7 +21412,7 @@
         <v>2019</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q197" s="1">
         <v>43.347808837890597</v>
@@ -21421,10 +21424,10 @@
         <v>25</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U197" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V197" s="1" t="s">
         <v>38</v>
@@ -21453,7 +21456,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C198" t="s">
         <v>191</v>
@@ -21478,16 +21481,16 @@
         <v>2019</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N198" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O198" s="1">
         <v>1</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q198" s="1">
         <v>43.347763061523402</v>
@@ -21499,10 +21502,10 @@
         <v>25</v>
       </c>
       <c r="T198" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U198" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V198" s="1" t="s">
         <v>38</v>
@@ -21537,7 +21540,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C199" t="s">
         <v>191</v>
@@ -21562,16 +21565,16 @@
         <v>2019</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N199" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O199" s="1">
         <v>6</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q199" s="1">
         <v>43.345993041992202</v>
@@ -21583,10 +21586,10 @@
         <v>25</v>
       </c>
       <c r="T199" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U199" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V199" s="1" t="s">
         <v>38</v>
@@ -21621,7 +21624,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C200" t="s">
         <v>61</v>
@@ -21646,7 +21649,7 @@
         <v>2019</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q200" s="1">
         <v>43.345794677734403</v>
@@ -21658,10 +21661,10 @@
         <v>25</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U200" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V200" s="1" t="s">
         <v>38</v>
@@ -21690,13 +21693,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C201" t="s">
         <v>229</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>231</v>
@@ -21707,7 +21710,7 @@
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K201" s="3">
         <v>43724</v>
@@ -21716,7 +21719,7 @@
         <v>2019</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q201" s="1">
         <v>43.345447540283203</v>
@@ -21728,10 +21731,10 @@
         <v>25</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U201" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V201" s="1" t="s">
         <v>38</v>
@@ -21752,7 +21755,7 @@
         <v>42</v>
       </c>
       <c r="AF201" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG201" s="1" t="s">
         <v>27</v>
@@ -21763,7 +21766,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C202" t="s">
         <v>101</v>
@@ -21788,7 +21791,7 @@
         <v>2019</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q202" s="1">
         <v>43.345527648925803</v>
@@ -21800,10 +21803,10 @@
         <v>25</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U202" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V202" s="1" t="s">
         <v>38</v>
@@ -21832,7 +21835,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C203" t="s">
         <v>174</v>
@@ -21857,16 +21860,16 @@
         <v>2019</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O203" s="1">
         <v>1</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q203" s="1">
         <v>43.343971252441399</v>
@@ -21878,10 +21881,10 @@
         <v>25</v>
       </c>
       <c r="T203" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U203" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V203" s="1" t="s">
         <v>38</v>
@@ -21916,7 +21919,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C204" t="s">
         <v>53</v>
@@ -21941,7 +21944,7 @@
         <v>2019</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q204" s="1">
         <v>43.343978881835902</v>
@@ -21953,10 +21956,10 @@
         <v>25</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U204" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V204" s="1" t="s">
         <v>38</v>
@@ -21985,19 +21988,19 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C205" t="s">
+        <v>325</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="H205" t="s">
         <v>328</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H205" t="s">
-        <v>330</v>
       </c>
       <c r="I205"/>
       <c r="J205" t="s">
@@ -22010,7 +22013,7 @@
         <v>2019</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q205" s="1">
         <v>43.343704223632798</v>
@@ -22022,10 +22025,10 @@
         <v>25</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U205" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V205" s="1" t="s">
         <v>38</v>
@@ -22054,23 +22057,23 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C206" t="s">
         <v>166</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H206" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I206"/>
       <c r="J206" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K206" s="3">
         <v>43724</v>
@@ -22079,7 +22082,7 @@
         <v>2019</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q206" s="1">
         <v>43.342720031738303</v>
@@ -22091,10 +22094,10 @@
         <v>25</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U206" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V206" s="1" t="s">
         <v>38</v>
@@ -22115,7 +22118,7 @@
         <v>42</v>
       </c>
       <c r="AF206" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AG206" s="1" t="s">
         <v>25</v>
@@ -22126,19 +22129,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C207" t="s">
         <v>174</v>
       </c>
       <c r="D207" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H207" t="s">
         <v>335</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H207" t="s">
-        <v>337</v>
       </c>
       <c r="I207"/>
       <c r="J207" t="s">
@@ -22151,7 +22154,7 @@
         <v>2019</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q207" s="1">
         <v>43.342681884765597</v>
@@ -22163,10 +22166,10 @@
         <v>25</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U207" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V207" s="1" t="s">
         <v>38</v>
@@ -22195,25 +22198,25 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C208" t="s">
+        <v>336</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="H208" t="s">
         <v>339</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="I208" t="s">
+        <v>339</v>
+      </c>
+      <c r="J208" t="s">
         <v>340</v>
-      </c>
-      <c r="H208" t="s">
-        <v>341</v>
-      </c>
-      <c r="I208" t="s">
-        <v>341</v>
-      </c>
-      <c r="J208" t="s">
-        <v>342</v>
       </c>
       <c r="K208" s="3">
         <v>43724</v>
@@ -22222,16 +22225,16 @@
         <v>2019</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O208" s="1">
         <v>2</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q208" s="1">
         <v>43.344352722167997</v>
@@ -22243,10 +22246,10 @@
         <v>25</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U208" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V208" s="1" t="s">
         <v>38</v>
@@ -22273,7 +22276,7 @@
         <v>42</v>
       </c>
       <c r="AF208" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AG208" s="1" t="s">
         <v>25</v>
@@ -22284,25 +22287,25 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C209" t="s">
+        <v>336</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="H209" t="s">
         <v>339</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="I209" t="s">
+        <v>339</v>
+      </c>
+      <c r="J209" t="s">
         <v>340</v>
-      </c>
-      <c r="H209" t="s">
-        <v>341</v>
-      </c>
-      <c r="I209" t="s">
-        <v>341</v>
-      </c>
-      <c r="J209" t="s">
-        <v>342</v>
       </c>
       <c r="K209" s="3">
         <v>43724</v>
@@ -22311,16 +22314,16 @@
         <v>2019</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O209" s="1">
         <v>1</v>
       </c>
       <c r="P209" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q209" s="1">
         <v>43.344352722167997</v>
@@ -22332,10 +22335,10 @@
         <v>25</v>
       </c>
       <c r="T209" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U209" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V209" s="1" t="s">
         <v>38</v>
@@ -22362,7 +22365,7 @@
         <v>42</v>
       </c>
       <c r="AF209" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AG209" s="1" t="s">
         <v>25</v>
@@ -22373,7 +22376,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C210" t="s">
         <v>191</v>
@@ -22398,16 +22401,16 @@
         <v>2019</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O210" s="1">
         <v>1</v>
       </c>
       <c r="P210" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q210" s="1">
         <v>43.344352722167997</v>
@@ -22419,10 +22422,10 @@
         <v>25</v>
       </c>
       <c r="T210" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U210" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V210" s="1" t="s">
         <v>38</v>
@@ -22457,7 +22460,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C211" t="s">
         <v>61</v>
@@ -22482,16 +22485,16 @@
         <v>2019</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O211" s="1">
         <v>2</v>
       </c>
       <c r="P211" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q211" s="1">
         <v>43.344352720000003</v>
@@ -22503,10 +22506,10 @@
         <v>25</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U211" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V211" s="1" t="s">
         <v>38</v>
@@ -22535,7 +22538,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C212" t="s">
         <v>61</v>
@@ -22560,16 +22563,16 @@
         <v>2019</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O212" s="1">
         <v>4</v>
       </c>
       <c r="P212" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q212" s="1">
         <v>43.344352720000003</v>
@@ -22581,10 +22584,10 @@
         <v>25</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U212" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V212" s="1" t="s">
         <v>38</v>
@@ -22619,7 +22622,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C213" t="s">
         <v>61</v>
@@ -22644,16 +22647,16 @@
         <v>2019</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O213" s="1">
         <v>2</v>
       </c>
       <c r="P213" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q213" s="1">
         <v>43.344352720000003</v>
@@ -22665,10 +22668,10 @@
         <v>25</v>
       </c>
       <c r="T213" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U213" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V213" s="1" t="s">
         <v>38</v>
@@ -22703,22 +22706,22 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C214" t="s">
         <v>91</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H214" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K214" s="3">
         <v>43724</v>
@@ -22727,16 +22730,16 @@
         <v>2019</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O214" s="1">
         <v>1</v>
       </c>
       <c r="P214" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q214" s="1">
         <v>43.344196319580099</v>
@@ -22748,10 +22751,10 @@
         <v>25</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U214" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V214" s="1" t="s">
         <v>38</v>
@@ -22778,7 +22781,7 @@
         <v>42</v>
       </c>
       <c r="AF214" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AG214" s="1" t="s">
         <v>27</v>
@@ -22789,22 +22792,22 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C215" t="s">
         <v>91</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H215" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K215" s="3">
         <v>43724</v>
@@ -22813,16 +22816,16 @@
         <v>2019</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O215" s="1">
         <v>4</v>
       </c>
       <c r="P215" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q215" s="1">
         <v>43.344196319580099</v>
@@ -22834,10 +22837,10 @@
         <v>25</v>
       </c>
       <c r="T215" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U215" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V215" s="1" t="s">
         <v>38</v>
@@ -22864,7 +22867,7 @@
         <v>42</v>
       </c>
       <c r="AF215" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AG215" s="1" t="s">
         <v>27</v>
@@ -22875,7 +22878,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C216" t="s">
         <v>127</v>
@@ -22891,7 +22894,7 @@
       </c>
       <c r="I216"/>
       <c r="J216" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K216" s="3">
         <v>43724</v>
@@ -22900,16 +22903,16 @@
         <v>2019</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O216" s="1">
         <v>1</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q216" s="1">
         <v>43.344036102294901</v>
@@ -22921,10 +22924,10 @@
         <v>25</v>
       </c>
       <c r="T216" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U216" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V216" s="1" t="s">
         <v>38</v>
@@ -22959,7 +22962,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C217" t="s">
         <v>127</v>
@@ -22975,7 +22978,7 @@
       </c>
       <c r="I217"/>
       <c r="J217" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K217" s="3">
         <v>43724</v>
@@ -22984,16 +22987,16 @@
         <v>2019</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O217" s="1">
         <v>2</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q217" s="1">
         <v>43.344036102294901</v>
@@ -23005,10 +23008,10 @@
         <v>25</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U217" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V217" s="1" t="s">
         <v>38</v>
@@ -23043,23 +23046,23 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C218" t="s">
         <v>166</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H218" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I218"/>
       <c r="J218" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K218" s="3">
         <v>43724</v>
@@ -23068,16 +23071,16 @@
         <v>2019</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O218" s="1">
         <v>2</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q218" s="1">
         <v>43.344043730000003</v>
@@ -23089,10 +23092,10 @@
         <v>25</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U218" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V218" s="1" t="s">
         <v>38</v>
@@ -23113,7 +23116,7 @@
         <v>42</v>
       </c>
       <c r="AF218" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AG218" s="1" t="s">
         <v>27</v>
@@ -23124,23 +23127,23 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C219" t="s">
         <v>166</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>209</v>
       </c>
       <c r="H219" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I219"/>
       <c r="J219" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K219" s="3">
         <v>43724</v>
@@ -23149,16 +23152,16 @@
         <v>2019</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O219" s="1">
         <v>4</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q219" s="1">
         <v>43.344043730000003</v>
@@ -23170,10 +23173,10 @@
         <v>25</v>
       </c>
       <c r="T219" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U219" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V219" s="1" t="s">
         <v>38</v>
@@ -23200,7 +23203,7 @@
         <v>42</v>
       </c>
       <c r="AF219" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AG219" s="1" t="s">
         <v>25</v>
@@ -23211,19 +23214,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C220" t="s">
         <v>174</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H220" t="s">
         <v>335</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H220" t="s">
-        <v>337</v>
       </c>
       <c r="I220"/>
       <c r="J220" t="s">
@@ -23236,16 +23239,16 @@
         <v>2019</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O220" s="1">
         <v>1</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q220" s="1">
         <v>43.344043730000003</v>
@@ -23257,10 +23260,10 @@
         <v>25</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U220" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V220" s="1" t="s">
         <v>38</v>
@@ -23295,25 +23298,25 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H221" t="s">
         <v>347</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="I221" t="s">
         <v>348</v>
       </c>
-      <c r="H221" t="s">
+      <c r="J221" t="s">
         <v>349</v>
-      </c>
-      <c r="I221" t="s">
-        <v>350</v>
-      </c>
-      <c r="J221" t="s">
-        <v>351</v>
       </c>
       <c r="K221" s="3">
         <v>43724</v>
@@ -23322,16 +23325,16 @@
         <v>2019</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O221" s="1">
         <v>1</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q221" s="1">
         <v>43.343986511230497</v>
@@ -23343,10 +23346,10 @@
         <v>25</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U221" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V221" s="1" t="s">
         <v>38</v>
@@ -23381,19 +23384,19 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>231</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K222" s="3">
         <v>43724</v>
@@ -23402,16 +23405,16 @@
         <v>2019</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O222" s="1">
         <v>1</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q222" s="1">
         <v>43.344329833984403</v>
@@ -23423,10 +23426,10 @@
         <v>25</v>
       </c>
       <c r="T222" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U222" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V222" s="1" t="s">
         <v>38</v>
@@ -23447,7 +23450,7 @@
         <v>42</v>
       </c>
       <c r="AF222" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG222" s="1" t="s">
         <v>27</v>
@@ -23458,13 +23461,13 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K223" s="3">
         <v>43724</v>
@@ -23473,16 +23476,16 @@
         <v>2019</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O223" s="1">
         <v>1</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q223" s="1">
         <v>43.34389444</v>
@@ -23494,10 +23497,10 @@
         <v>25</v>
       </c>
       <c r="T223" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U223" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="V223" s="1" t="s">
         <v>38</v>
@@ -23518,7 +23521,7 @@
         <v>42</v>
       </c>
       <c r="AF223" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG223" s="1" t="s">
         <v>27</v>
@@ -23592,36 +23595,36 @@
         <v>23</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>222</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="E2" s="1">
         <v>-4.9894239999999996</v>
@@ -23645,16 +23648,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -24226,8 +24229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE66084-9FAF-4850-B447-6B8EAB238C0A}">
   <dimension ref="A3:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D78"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24239,13 +24242,13 @@
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3" t="s">
         <v>645</v>
       </c>
-      <c r="B3" t="s">
-        <v>648</v>
-      </c>
       <c r="D3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -24334,13 +24337,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -24390,13 +24393,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -24404,13 +24407,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -24418,13 +24421,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -24446,13 +24449,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -24530,13 +24533,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -24558,13 +24561,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -24600,13 +24603,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -24628,13 +24631,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -24642,13 +24645,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -24684,13 +24687,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -24726,13 +24729,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -24852,13 +24855,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B47" s="7">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -24880,13 +24883,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -24894,13 +24897,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -24922,13 +24925,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B52" s="7">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -24992,13 +24995,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B57" s="7">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -25034,13 +25037,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B60" s="7">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -25048,13 +25051,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="7">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -25132,13 +25135,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B67" s="7">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -25174,13 +25177,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B70" s="7">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -25202,13 +25205,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B72" s="7">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -25272,13 +25275,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -25286,13 +25289,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B78" s="7">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -25300,13 +25303,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B80" s="7">
         <v>222</v>
@@ -25333,10 +25336,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -25405,7 +25408,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B12" s="7">
         <v>4</v>
@@ -25461,7 +25464,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
@@ -25525,7 +25528,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -25573,7 +25576,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -25581,7 +25584,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -25597,7 +25600,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
@@ -25653,7 +25656,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
@@ -25693,7 +25696,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B48" s="7">
         <v>2</v>
@@ -25717,7 +25720,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B51" s="7">
         <v>1</v>
@@ -25741,7 +25744,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B54" s="7">
         <v>1</v>
@@ -25749,7 +25752,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B55" s="7">
         <v>3</v>
@@ -25757,13 +25760,13 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B57" s="7">
         <v>218</v>
@@ -25790,10 +25793,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -25846,7 +25849,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B10" s="7">
         <v>2</v>
@@ -25958,7 +25961,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
@@ -26014,7 +26017,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B31" s="7">
         <v>2</v>
@@ -26070,7 +26073,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B38" s="7">
         <v>1</v>
@@ -26086,13 +26089,13 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B41" s="7">
         <v>219</v>

--- a/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
+++ b/data/raw/NorthernSpain_ES_TOTAL_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{94D2AA51-C994-4DED-A195-D422B018DC1B}"/>
+  <xr:revisionPtr revIDLastSave="524" documentId="13_ncr:1_{2E796F1C-C6A4-4BA0-8FBB-0E686A07A5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{58C2F9F0-E68B-40DB-A8E1-39F060968B75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5405,8 +5405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O224" sqref="O224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8623,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Q40" s="1">
         <v>43.428845000000003</v>
@@ -12925,6 +12925,9 @@
       <c r="M94" s="1" t="s">
         <v>600</v>
       </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
       <c r="P94" s="1" t="s">
         <v>551</v>
       </c>
@@ -17929,6 +17932,9 @@
       <c r="M154" s="1" t="s">
         <v>600</v>
       </c>
+      <c r="O154" s="1">
+        <v>1</v>
+      </c>
       <c r="P154" s="1" t="s">
         <v>551</v>
       </c>
@@ -20980,6 +20986,9 @@
       <c r="M191" s="1" t="s">
         <v>600</v>
       </c>
+      <c r="O191" s="1">
+        <v>1</v>
+      </c>
       <c r="P191" s="1" t="s">
         <v>551</v>
       </c>
@@ -21052,6 +21061,9 @@
       <c r="M192" s="1" t="s">
         <v>600</v>
       </c>
+      <c r="O192" s="1">
+        <v>1</v>
+      </c>
       <c r="P192" s="1" t="s">
         <v>551</v>
       </c>
@@ -21123,6 +21135,9 @@
       </c>
       <c r="M193" s="1" t="s">
         <v>600</v>
+      </c>
+      <c r="O193" s="1">
+        <v>1</v>
       </c>
       <c r="P193" s="1" t="s">
         <v>551</v>
